--- a/lections/План 212-2.xlsx
+++ b/lections/План 212-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-212-2\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6502A107-1A47-4807-A28D-10B02D378557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC0F20-4578-4AF1-9983-8DD6AF2A7C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -427,6 +427,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,6 +452,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,31 +484,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -782,138 +782,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="23"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="8"/>
     </row>
     <row r="2" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25" t="s">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25" t="s">
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="26"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="11"/>
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
@@ -1090,110 +1090,110 @@
       <c r="BH3" s="5"/>
     </row>
     <row r="4" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="10"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="17"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
@@ -1204,110 +1204,110 @@
       <c r="BH4" s="5"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="13" t="s">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="15"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="22"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
@@ -1318,110 +1318,110 @@
       <c r="BH5" s="5"/>
     </row>
     <row r="6" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="18" t="s">
+      <c r="A6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="Z6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="20"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="26"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>

--- a/lections/План 212-2.xlsx
+++ b/lections/План 212-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-212-2\lections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-212-2\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC0F20-4578-4AF1-9983-8DD6AF2A7C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0711B4B-42FB-43F3-8609-4ED387520607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -410,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +433,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,54 +496,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -782,138 +797,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="8"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="23"/>
     </row>
     <row r="2" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10" t="s">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10" t="s">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10" t="s">
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10" t="s">
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10" t="s">
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="11"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="26"/>
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
@@ -1090,110 +1105,110 @@
       <c r="BH3" s="5"/>
     </row>
     <row r="4" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="14" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="17"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="11"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
@@ -1204,110 +1219,110 @@
       <c r="BH4" s="5"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="20" t="s">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="21"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="22"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="16"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
@@ -1318,110 +1333,110 @@
       <c r="BH5" s="5"/>
     </row>
     <row r="6" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="15" t="s">
+      <c r="A6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="26"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="20"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>

--- a/lections/План 212-2.xlsx
+++ b/lections/План 212-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-212-2\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0711B4B-42FB-43F3-8609-4ED387520607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8A99E-7AD3-4B2D-AC9C-73D9E4EAE3C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30690" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,6 +478,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,15 +503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -797,138 +797,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="26"/>
     </row>
     <row r="2" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25" t="s">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25" t="s">
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25" t="s">
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25" t="s">
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25" t="s">
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="26"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="29"/>
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
@@ -1160,22 +1160,22 @@
       <c r="S4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="27" t="s">
+      <c r="T4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="Z4" s="8" t="s">
@@ -1276,22 +1276,22 @@
       <c r="S5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="28" t="s">
+      <c r="T5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="22" t="s">
         <v>12</v>
       </c>
       <c r="Z5" s="14" t="s">
@@ -1390,19 +1390,19 @@
       <c r="S6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="29" t="s">
+      <c r="T6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="Y6" s="9" t="s">

--- a/lections/План 212-2.xlsx
+++ b/lections/План 212-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-212-2\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A8A99E-7AD3-4B2D-AC9C-73D9E4EAE3C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0614920-B94D-4579-AD4E-5A1B5A05760A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="2880" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1163,10 @@
       <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="21" t="s">
+      <c r="U4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="W4" s="21" t="s">
@@ -1279,7 +1279,7 @@
       <c r="T5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="V5" s="22" t="s">
@@ -1393,7 +1393,7 @@
       <c r="T6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="V6" s="23" t="s">

--- a/lections/План 212-2.xlsx
+++ b/lections/План 212-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-212-2\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0614920-B94D-4579-AD4E-5A1B5A05760A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB42BF-466E-423D-B506-87E371494C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
   <si>
     <t>май</t>
   </si>
@@ -72,10 +66,19 @@
     <t>Dj</t>
   </si>
   <si>
-    <t>Dip</t>
+    <t>212/2</t>
   </si>
   <si>
-    <t>212/2</t>
+    <t>заполнение пробелов</t>
+  </si>
+  <si>
+    <t>защита дипломного проекта</t>
+  </si>
+  <si>
+    <t>экзамен</t>
+  </si>
+  <si>
+    <t>тестовое тех. Интервью</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +156,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -416,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,12 +454,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,6 +512,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -797,138 +839,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="26"/>
+      <c r="A1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="24"/>
     </row>
     <row r="2" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28" t="s">
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28" t="s">
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28" t="s">
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28" t="s">
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28" t="s">
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="29"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="27"/>
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
@@ -1169,46 +1211,46 @@
       <c r="V4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="11"/>
+      <c r="W4" s="20">
+        <v>6</v>
+      </c>
+      <c r="X4" s="19">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="9"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
@@ -1218,111 +1260,109 @@
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="14" t="s">
+    <row r="5" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="21">
+        <v>1</v>
+      </c>
+      <c r="W5" s="21">
+        <v>7</v>
+      </c>
+      <c r="X5" s="33">
         <v>13</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="16"/>
+      <c r="Y5" s="12">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="14"/>
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
@@ -1333,110 +1373,110 @@
       <c r="BH5" s="5"/>
     </row>
     <row r="6" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="20"/>
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="19">
+        <v>4</v>
+      </c>
+      <c r="W6" s="38">
+        <v>8</v>
+      </c>
+      <c r="X6" s="35">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="36">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="18"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
@@ -1457,6 +1497,20 @@
       <c r="BH7" s="5"/>
     </row>
     <row r="8" spans="1:60" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
@@ -1467,6 +1521,20 @@
       <c r="BH8" s="5"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="U9" s="4">
+        <v>2</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
       <c r="BA9" s="5"/>
       <c r="BB9" s="5"/>
       <c r="BC9" s="5"/>
@@ -1477,6 +1545,20 @@
       <c r="BH9" s="5"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="U10" s="4">
+        <v>3</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
@@ -1487,6 +1569,20 @@
       <c r="BH10" s="5"/>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="U11" s="4">
+        <v>4</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
@@ -2569,7 +2665,11 @@
       <c r="BG30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="V8:AD8"/>
+    <mergeCell ref="V10:AD10"/>
+    <mergeCell ref="V9:AD9"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
